--- a/功能实现为主导改写资料代码块(Flask）.xlsx
+++ b/功能实现为主导改写资料代码块(Flask）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="20385" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>清单排序</t>
   </si>
@@ -22,10 +22,328 @@
     <t>原资料功能</t>
   </si>
   <si>
-    <t>实现版本</t>
-  </si>
-  <si>
-    <t>改写版本</t>
+    <t>具体实现</t>
+  </si>
+  <si>
+    <t>快速上手</t>
+  </si>
+  <si>
+    <t>flask1.0</t>
+  </si>
+  <si>
+    <t>调试模式</t>
+  </si>
+  <si>
+    <t>debug,</t>
+  </si>
+  <si>
+    <t>use_debugger</t>
+  </si>
+  <si>
+    <t>use_reloader</t>
+  </si>
+  <si>
+    <t>路由：</t>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>route()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装饰器把函数绑定到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>url</t>
+    </r>
+  </si>
+  <si>
+    <t>变换规则</t>
+  </si>
+  <si>
+    <r>
+      <t>唯一的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>URL/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重定向</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>url_for()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数用于构建指定函数的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+  </si>
+  <si>
+    <t>from flask import request</t>
+  </si>
+  <si>
+    <t>静态文件</t>
+  </si>
+  <si>
+    <t>url_for('static',filename='style.css')</t>
+  </si>
+  <si>
+    <r>
+      <t>路径，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>static/style.css</t>
+    </r>
+  </si>
+  <si>
+    <t>渲染模板</t>
+  </si>
+  <si>
+    <t>render_template()</t>
+  </si>
+  <si>
+    <t>操作请求数据</t>
+  </si>
+  <si>
+    <t>test_requst_context()</t>
+  </si>
+  <si>
+    <t>request_context()</t>
+  </si>
+  <si>
+    <t>请求对象</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <r>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（）</t>
+    </r>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <r>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cookies</t>
+    </r>
+  </si>
+  <si>
+    <t>from flask import make_response</t>
+  </si>
+  <si>
+    <t>重定向和错误</t>
+  </si>
+  <si>
+    <t>redirect(),abort()</t>
+  </si>
+  <si>
+    <r>
+      <t>errorhandler()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装饰器可以定制出错页面</t>
+    </r>
+  </si>
+  <si>
+    <t>关于响应</t>
+  </si>
+  <si>
+    <r>
+      <t>make_response()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数</t>
+    </r>
+  </si>
+  <si>
+    <t>会话</t>
+  </si>
+  <si>
+    <t>session()</t>
+  </si>
+  <si>
+    <t>如何生成一个好的秘钥</t>
+  </si>
+  <si>
+    <t>Flask.secret_key()</t>
+  </si>
+  <si>
+    <t>消息闪现</t>
+  </si>
+  <si>
+    <t>get_flashed_message()</t>
+  </si>
+  <si>
+    <t>日志</t>
+  </si>
+  <si>
+    <t>app.logger.debug,app.logger.warning,</t>
+  </si>
+  <si>
+    <t>app.logger.error</t>
+  </si>
+  <si>
+    <r>
+      <t>集成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WSGI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Flask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展</t>
+    </r>
+  </si>
+  <si>
+    <t>部署到网络服务器</t>
   </si>
 </sst>
 </file>
@@ -33,12 +351,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -53,17 +371,174 @@
     </font>
     <font>
       <sz val="13"/>
-      <color indexed="9"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,12 +565,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -105,29 +760,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -135,48 +790,275 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,44 +1069,89 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <fgColor indexed="10"/>
           <bgColor indexed="55"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -233,7 +1160,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="303030"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -274,71 +1201,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,27 +1477,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.1259259259259" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,119 +1513,246 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" spans="1:2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="19.5" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="19.5" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" ht="19.5" spans="1:3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" ht="19.5" spans="1:2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="19.5" spans="1:2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -935,11 +1991,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:S28 A29:S29 A30:S30 A31:S31 A32:S32 A33:S33 A34:S34 A35:S35 A36:S36 A37:S37 A38:S38 A39:S39 A40:S40 A41:S41 A42:S42 A43:S43 A44:S44 A45:S45 A46:S46 A47:S47 A48:S48 A49:S49 A50:S50 A51:S51 A52:S52 A53:S53 A54:S54 A55:S55 A56:S56 A57:S57 A58:S58 A59:S59 A60:S60 A61:S61 A62:S62 A63:S63 A64:S64 A65:S65 A66:S66 A67:S67 A68:S68 A69:S69 A70:S173">
+  <conditionalFormatting sqref="A2:M173">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
